--- a/dat/xlsxs/dat0src.xlsx
+++ b/dat/xlsxs/dat0src.xlsx
@@ -437,10 +437,13 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -506,19 +509,19 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>0.78</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.79</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.81</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>0.84</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0.87</v>
       </c>
     </row>
@@ -526,19 +529,19 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1.98</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1.77</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>1.56</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.224</v>
       </c>
     </row>
@@ -546,19 +549,19 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1.26</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1.27</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1.3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>1.33</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>1.36</v>
       </c>
     </row>
@@ -566,19 +569,19 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.96</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1.02</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.9</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.65</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.126</v>
       </c>
     </row>
@@ -586,19 +589,19 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1.66</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1.66</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>1.69</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>1.72</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>1.74</v>
       </c>
     </row>
@@ -606,19 +609,19 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.48</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0.6</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.54</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.39</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
@@ -626,19 +629,19 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1.99</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>2.0699999999999998</v>
       </c>
     </row>
@@ -646,19 +649,19 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0.24</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.37</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.35</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0.27</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>0.08</v>
       </c>
     </row>
